--- a/文档/BlockChain/blockchain.xlsx
+++ b/文档/BlockChain/blockchain.xlsx
@@ -4,22 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ico" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>MerkleRoot</t>
   </si>
   <si>
     <t>Merkle tree reference to hash of all transactions for the block.</t>
+  </si>
+  <si>
+    <t>eth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -410,4 +419,34 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>31529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/BlockChain/blockchain.xlsx
+++ b/文档/BlockChain/blockchain.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ico" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -397,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -425,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
